--- a/Bibliometria1.xlsx
+++ b/Bibliometria1.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ludmi\Google Drive\Mestrado\Artigo Q-learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC68E06-CB4C-4D1B-B388-A446311C66A6}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F6381E-9B5C-4FD9-BFB5-391C6049E708}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6940" xr2:uid="{892CE944-84D9-4BC9-ABF2-F6D8514C3EE3}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumos" sheetId="2" r:id="rId1"/>
     <sheet name="Lista" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="197">
   <si>
     <t>Autores</t>
   </si>
@@ -623,12 +624,81 @@
   <si>
     <t>O espaço de estados é composto pela  tupla (número de ações de cada ativo,  preço das ações de cada ativo, montante disponível, tendencia de cada ativo estimada pelo modelo markoviano oculto). As ações do agente são representadas por um vetor com a decisao de comprar,vender ou esperar para cada um dos ativos no portfólio. Se o agente decide comprar mais de um ativo, o montande disponível é distribuido igualmente entre eles. Finalmente, as recompensas são devinidas como o valor atual do portfólio.</t>
   </si>
+  <si>
+    <t>Alocação entre ativos de risco  e livre de risco utilizando QL com diferentes funções de otimização: lucro, sharpe ratio. Os parâmetros de alocação são encontrados utilizando método gradiente estocástico</t>
+  </si>
+  <si>
+    <t>O espaço de estados é discrediz</t>
+  </si>
+  <si>
+    <t>Model-based pairs trading in the bitcoin markets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Quantitative Finance</t>
+  </si>
+  <si>
+    <t>https://www.tandfonline.com/doi/full/10.1080/14697688.2016.1231928</t>
+  </si>
+  <si>
+    <t>Hybrid bi-objective portfolio optimization with pre-selection strategy</t>
+  </si>
+  <si>
+    <t>Technology Analysis &amp; Strategic Management</t>
+  </si>
+  <si>
+    <t>Bibliometrics-based evaluation of the Blockchain research trend: 2008 – March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tandfonline.com/doi/full/10.1080/09537325.2018.1434138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+0.960</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0020025517308381</t>
+  </si>
+  <si>
+    <t>Detecting structural changes in large portfolios</t>
+  </si>
+  <si>
+    <t>Empirical Economics</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/article/10.1007/s00181-017-1392-5</t>
+  </si>
+  <si>
+    <t>0.645</t>
+  </si>
+  <si>
+    <t>Information Sciences</t>
+  </si>
+  <si>
+    <t>Revista</t>
+  </si>
+  <si>
+    <t>Fator de Impacto</t>
+  </si>
+  <si>
+    <t>Qualis</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -646,6 +716,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -713,10 +791,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -790,8 +869,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1104,42 +1196,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2024F9E3-99B8-401A-992D-7848995BA865}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11.08984375" style="23" customWidth="1"/>
     <col min="2" max="2" width="22.1796875" style="23" customWidth="1"/>
-    <col min="3" max="8" width="34.26953125" style="23" customWidth="1"/>
+    <col min="3" max="3" width="34.26953125" style="23" hidden="1" customWidth="1"/>
+    <col min="4" max="8" width="34.26953125" style="23" customWidth="1"/>
     <col min="9" max="16384" width="8.7265625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="17" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22"/>
-      <c r="B1" s="22" t="s">
+    <row r="1" spans="1:10" s="28" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="27"/>
+      <c r="B1" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="22" t="s">
+      <c r="C1" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="27" t="s">
         <v>112</v>
       </c>
     </row>
@@ -1397,66 +1490,84 @@
         <v>145</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="1" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" s="17" customFormat="1" ht="92.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+    </row>
+    <row r="14" spans="1:10" s="1" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B14" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C14" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D14" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="E14" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="F13" s="24" t="s">
+      <c r="F14" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="G13" s="24" t="s">
+      <c r="G14" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="H13" s="24" t="s">
+      <c r="H14" s="24" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="1" customFormat="1" ht="71.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="22" t="s">
+    <row r="15" spans="1:10" s="1" customFormat="1" ht="71.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B15" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C15" s="24" t="s">
         <v>89</v>
-      </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="J14" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="1" customFormat="1" ht="76" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>125</v>
       </c>
       <c r="D15" s="24"/>
       <c r="E15" s="24"/>
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
       <c r="H15" s="24"/>
+      <c r="J15" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="1" customFormat="1" ht="76" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="22"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1467,8 +1578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DC7E835-4272-4313-8880-F23D3252DE14}">
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2349,4 +2460,130 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAC67E70-271F-494E-A83F-7EA33BA7CACB}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="25.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="5" width="25.81640625" style="1"/>
+    <col min="6" max="16384" width="25.81640625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="52" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D3" s="26">
+        <v>4832</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>189</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F5" r:id="rId1" xr:uid="{74819888-E466-4EC4-818C-CA3F83986E80}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{22AE01F7-B123-42E5-BB6A-E4031AB26CA4}"/>
+    <hyperlink ref="F3" r:id="rId3" xr:uid="{3C14897F-D346-42A1-BD93-62FA590511E2}"/>
+    <hyperlink ref="F4" r:id="rId4" xr:uid="{43802558-9D3D-4C16-9FE1-F5142EE0E7EB}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
+</worksheet>
 </file>
--- a/Bibliometria1.xlsx
+++ b/Bibliometria1.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ludmi\Google Drive\Mestrado\Artigo Q-learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F6381E-9B5C-4FD9-BFB5-391C6049E708}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C55D1C6-C65B-4875-B645-01F170D4F131}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6940" xr2:uid="{892CE944-84D9-4BC9-ABF2-F6D8514C3EE3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6940" activeTab="3" xr2:uid="{892CE944-84D9-4BC9-ABF2-F6D8514C3EE3}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumos" sheetId="2" r:id="rId1"/>
     <sheet name="Lista" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="MP" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="210">
   <si>
     <t>Autores</t>
   </si>
@@ -692,6 +693,46 @@
   </si>
   <si>
     <t>Link</t>
+  </si>
+  <si>
+    <t>pendharkar2018</t>
+  </si>
+  <si>
+    <t>Trading financial indices with reinforcement learning agents</t>
+  </si>
+  <si>
+    <t>Gap</t>
+  </si>
+  <si>
+    <t>Os autores sugerem que estudos futuros busquem generelizar o método proposto para o caso de portfólios com número arbitrario de ativos.</t>
+  </si>
+  <si>
+    <t>For future work, more features and data can be added
+to evaluate the pathway from multiple viewpoints especially the changes of technologies in Blockchain and related areas</t>
+  </si>
+  <si>
+    <t>Generalização para portfólios maiores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adaptação para restrições realistas do mercado </t>
+  </si>
+  <si>
+    <t>The disenchantment of Bitcoin: unveiling the myth of a digital currency</t>
+  </si>
+  <si>
+    <t>International Review of Sociology</t>
+  </si>
+  <si>
+    <t>Smart controller for conical tank system using reinforcement learning algorithm</t>
+  </si>
+  <si>
+    <t>Measurement</t>
+  </si>
+  <si>
+    <t>Virtual relationships: Short- and long-run evidence from BitCoin and altcoin markets</t>
+  </si>
+  <si>
+    <t>Journal of International Financial Markets, Institutions and Money</t>
   </si>
 </sst>
 </file>
@@ -1198,9 +1239,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2024F9E3-99B8-401A-992D-7848995BA865}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1214,8 +1255,8 @@
   <sheetData>
     <row r="1" spans="1:10" s="28" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="27"/>
-      <c r="B1" s="27" t="s">
-        <v>18</v>
+      <c r="B1" t="s">
+        <v>198</v>
       </c>
       <c r="C1" s="27" t="s">
         <v>82</v>
@@ -1558,7 +1599,9 @@
       </c>
     </row>
     <row r="16" spans="1:10" s="1" customFormat="1" ht="76" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="22"/>
+      <c r="A16" s="22" t="s">
+        <v>197</v>
+      </c>
       <c r="B16" s="24"/>
       <c r="C16" s="24" t="s">
         <v>125</v>
@@ -1578,8 +1621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DC7E835-4272-4313-8880-F23D3252DE14}">
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView showGridLines="0" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2464,19 +2507,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAC67E70-271F-494E-A83F-7EA33BA7CACB}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection sqref="A1:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="5" width="25.81640625" style="1"/>
-    <col min="6" max="16384" width="25.81640625" style="5"/>
+    <col min="1" max="1" width="25.81640625" style="1"/>
+    <col min="2" max="2" width="9.26953125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.1796875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.1796875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="25.81640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -2493,10 +2541,13 @@
         <v>194</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="52" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="57.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>177</v>
       </c>
@@ -2512,11 +2563,14 @@
       <c r="E2" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G2" s="25" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>180</v>
       </c>
@@ -2532,11 +2586,14 @@
       <c r="E3" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G3" s="25" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>182</v>
       </c>
@@ -2552,11 +2609,14 @@
       <c r="E4" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G4" s="25" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>187</v>
       </c>
@@ -2572,18 +2632,109 @@
       <c r="E5" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G5" s="25" t="s">
         <v>189</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F5" r:id="rId1" xr:uid="{74819888-E466-4EC4-818C-CA3F83986E80}"/>
-    <hyperlink ref="F2" r:id="rId2" xr:uid="{22AE01F7-B123-42E5-BB6A-E4031AB26CA4}"/>
-    <hyperlink ref="F3" r:id="rId3" xr:uid="{3C14897F-D346-42A1-BD93-62FA590511E2}"/>
-    <hyperlink ref="F4" r:id="rId4" xr:uid="{43802558-9D3D-4C16-9FE1-F5142EE0E7EB}"/>
+    <hyperlink ref="G5" r:id="rId1" xr:uid="{74819888-E466-4EC4-818C-CA3F83986E80}"/>
+    <hyperlink ref="G2" r:id="rId2" xr:uid="{22AE01F7-B123-42E5-BB6A-E4031AB26CA4}"/>
+    <hyperlink ref="G3" r:id="rId3" xr:uid="{3C14897F-D346-42A1-BD93-62FA590511E2}"/>
+    <hyperlink ref="G4" r:id="rId4" xr:uid="{43802558-9D3D-4C16-9FE1-F5142EE0E7EB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D36B371-A59C-4586-82F5-887FE2F8DFBE}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.1796875" customWidth="1"/>
+    <col min="2" max="2" width="15.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="79" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D3" s="26">
+        <v>4832</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Bibliometria1.xlsx
+++ b/Bibliometria1.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ludmi\Google Drive\Mestrado\Artigo Q-learning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\sbsb2\Dpti\Usuarios\Ludmilla_Mattos\qLearningFinance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C55D1C6-C65B-4875-B645-01F170D4F131}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6940" activeTab="3" xr2:uid="{892CE944-84D9-4BC9-ABF2-F6D8514C3EE3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6945"/>
   </bookViews>
   <sheets>
     <sheet name="Resumos" sheetId="2" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="MP" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="214">
   <si>
     <t>Autores</t>
   </si>
@@ -734,11 +733,23 @@
   <si>
     <t>Journal of International Financial Markets, Institutions and Money</t>
   </si>
+  <si>
+    <t>Considera um portfólio de dois ativos  e aplica diversas técnicas de aprendizado pro reforço, entre elas Um Q-Learning com espaços de estatos e ações discretos maximizando retornos e sharpe ratio</t>
+  </si>
+  <si>
+    <t>O espaço de estados cosiste em um vetor com dois dindicadores binários indicando se os atrivos foram positivos ou negativos. Logo os estados possíveis são: (00, 01, 10, 11) O espaço de ações possiveis representam cinco possibilidades de distribuição do montante disponível em cada cativo:  (0/% 100/%, 25/% 75/%, 50/% 50/%, 75/% 25/%, 100/% 0/%). Dois critérios de reconpensa foram adotados: a maximização do lucro absoluto do portfólio representa um investidor neutro ao risco; já a maximização do Sharpe Ratio é uma medida do lucro ajustada ao risco.</t>
+  </si>
+  <si>
+    <t>Foram utilizados dados anuais de 1976 até 2016 do Índice S&amp;P500 e papéis do tesouro americano. Os dados foram divididos em período de treino (1976-2001) e teste (2002-2016).</t>
+  </si>
+  <si>
+    <t>Os resultados mostraram que o método de que learning teve desenpenho inferior aos métodos de referência</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -924,7 +935,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1236,24 +1247,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2024F9E3-99B8-401A-992D-7848995BA865}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.08984375" style="23" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" style="23" customWidth="1"/>
-    <col min="3" max="3" width="34.26953125" style="23" hidden="1" customWidth="1"/>
-    <col min="4" max="8" width="34.26953125" style="23" customWidth="1"/>
-    <col min="9" max="16384" width="8.7265625" style="23"/>
+    <col min="1" max="1" width="11.140625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" style="23" hidden="1" customWidth="1"/>
+    <col min="4" max="8" width="34.28515625" style="23" customWidth="1"/>
+    <col min="9" max="16384" width="8.7109375" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="28" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" s="28" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27"/>
       <c r="B1" t="s">
         <v>198</v>
@@ -1277,7 +1288,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="16" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" s="16" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>6</v>
       </c>
@@ -1303,7 +1314,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="129.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="129.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>10</v>
       </c>
@@ -1329,7 +1340,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="80" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="80.099999999999994" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>103</v>
       </c>
@@ -1345,7 +1356,7 @@
       <c r="G4" s="24"/>
       <c r="H4" s="24"/>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="77" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="77.099999999999994" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>108</v>
       </c>
@@ -1361,7 +1372,7 @@
       <c r="G5" s="24"/>
       <c r="H5" s="24"/>
     </row>
-    <row r="6" spans="1:10" s="18" customFormat="1" ht="89.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" s="18" customFormat="1" ht="89.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>139</v>
       </c>
@@ -1385,7 +1396,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="17" customFormat="1" ht="116" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" s="17" customFormat="1" ht="116.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>52</v>
       </c>
@@ -1411,7 +1422,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="21" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" s="21" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>26</v>
       </c>
@@ -1437,7 +1448,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="17" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" s="17" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>140</v>
       </c>
@@ -1463,7 +1474,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" s="1" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>28</v>
       </c>
@@ -1479,7 +1490,7 @@
       <c r="G10" s="24"/>
       <c r="H10" s="24"/>
     </row>
-    <row r="11" spans="1:10" s="17" customFormat="1" ht="90.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" s="17" customFormat="1" ht="90.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>146</v>
       </c>
@@ -1505,7 +1516,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="17" customFormat="1" ht="92.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" s="17" customFormat="1" ht="92.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>5</v>
       </c>
@@ -1531,7 +1542,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="17" customFormat="1" ht="92.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" s="17" customFormat="1" ht="92.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>98</v>
       </c>
@@ -1553,7 +1564,7 @@
       <c r="G13" s="24"/>
       <c r="H13" s="24"/>
     </row>
-    <row r="14" spans="1:10" s="1" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" s="1" customFormat="1" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>50</v>
       </c>
@@ -1579,7 +1590,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="1" customFormat="1" ht="71.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" s="1" customFormat="1" ht="71.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>56</v>
       </c>
@@ -1598,19 +1609,29 @@
         <v>172</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="1" customFormat="1" ht="76" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" s="1" customFormat="1" ht="75.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>197</v>
       </c>
-      <c r="B16" s="24"/>
+      <c r="B16" s="24" t="s">
+        <v>198</v>
+      </c>
       <c r="C16" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="D16" s="24"/>
+      <c r="D16" s="24" t="s">
+        <v>210</v>
+      </c>
       <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
+      <c r="F16" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="H16" s="24" t="s">
+        <v>213</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1618,27 +1639,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DC7E835-4272-4313-8880-F23D3252DE14}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
-    <col min="2" max="2" width="13.36328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.81640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="44.7265625" style="1" customWidth="1"/>
-    <col min="6" max="9" width="44.7265625" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="62.1796875" style="5" customWidth="1"/>
-    <col min="11" max="11" width="9.54296875" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="8.7109375" style="1"/>
+    <col min="2" max="2" width="13.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="44.7109375" style="1" customWidth="1"/>
+    <col min="6" max="9" width="44.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="62.140625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -1668,7 +1689,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1989</v>
       </c>
@@ -1695,7 +1716,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>1992</v>
       </c>
@@ -1722,7 +1743,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="17" customFormat="1" ht="75.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" s="17" customFormat="1" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>1996</v>
       </c>
@@ -1757,7 +1778,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="16" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" s="16" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>1998</v>
       </c>
@@ -1790,7 +1811,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>2002</v>
       </c>
@@ -1814,7 +1835,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="49" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>1998</v>
       </c>
@@ -1841,7 +1862,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="41.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>1998</v>
       </c>
@@ -1866,7 +1887,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>1998</v>
       </c>
@@ -1891,7 +1912,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="18" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" s="18" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>2000</v>
       </c>
@@ -1918,7 +1939,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="52" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="51.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>2001</v>
       </c>
@@ -1945,7 +1966,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>2001</v>
       </c>
@@ -1972,7 +1993,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="17" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" s="17" customFormat="1" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>2002</v>
       </c>
@@ -1999,7 +2020,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="21" customFormat="1" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" s="21" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19">
         <v>2004</v>
       </c>
@@ -2026,7 +2047,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>2007</v>
       </c>
@@ -2053,7 +2074,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="17" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" s="17" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>2007</v>
       </c>
@@ -2080,7 +2101,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>2007</v>
       </c>
@@ -2104,7 +2125,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="17" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>2012</v>
       </c>
@@ -2131,7 +2152,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>2015</v>
       </c>
@@ -2154,7 +2175,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>2016</v>
       </c>
@@ -2181,7 +2202,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="17" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>2016</v>
       </c>
@@ -2208,7 +2229,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>2017</v>
       </c>
@@ -2228,7 +2249,7 @@
       <c r="I22" s="4"/>
       <c r="J22" s="15"/>
     </row>
-    <row r="23" spans="1:11" ht="71.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" ht="71.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>2017</v>
       </c>
@@ -2252,7 +2273,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="12"/>
       <c r="B24" s="12" t="s">
         <v>46</v>
@@ -2273,7 +2294,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="76" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" ht="75.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>2016</v>
       </c>
@@ -2295,7 +2316,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -2307,7 +2328,7 @@
       <c r="I26" s="4"/>
       <c r="J26" s="7"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -2319,7 +2340,7 @@
       <c r="I27" s="4"/>
       <c r="J27" s="7"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -2331,7 +2352,7 @@
       <c r="I28" s="4"/>
       <c r="J28" s="7"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -2343,7 +2364,7 @@
       <c r="I29" s="4"/>
       <c r="J29" s="7"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -2355,7 +2376,7 @@
       <c r="I30" s="4"/>
       <c r="J30" s="7"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -2367,7 +2388,7 @@
       <c r="I31" s="4"/>
       <c r="J31" s="7"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -2379,7 +2400,7 @@
       <c r="I32" s="4"/>
       <c r="J32" s="7"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -2391,7 +2412,7 @@
       <c r="I33" s="4"/>
       <c r="J33" s="7"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -2403,7 +2424,7 @@
       <c r="I34" s="4"/>
       <c r="J34" s="7"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -2415,7 +2436,7 @@
       <c r="I35" s="4"/>
       <c r="J35" s="7"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -2427,7 +2448,7 @@
       <c r="I36" s="4"/>
       <c r="J36" s="7"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -2439,7 +2460,7 @@
       <c r="I37" s="4"/>
       <c r="J37" s="7"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -2451,7 +2472,7 @@
       <c r="I38" s="4"/>
       <c r="J38" s="7"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -2463,7 +2484,7 @@
       <c r="I39" s="4"/>
       <c r="J39" s="7"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -2475,7 +2496,7 @@
       <c r="I40" s="4"/>
       <c r="J40" s="7"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -2487,7 +2508,7 @@
       <c r="I41" s="4"/>
       <c r="J41" s="7"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -2506,25 +2527,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAC67E70-271F-494E-A83F-7EA33BA7CACB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection sqref="A1:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="25.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.81640625" style="1"/>
-    <col min="2" max="2" width="9.26953125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.1796875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.1796875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="25.81640625" style="5"/>
+    <col min="1" max="1" width="25.85546875" style="1"/>
+    <col min="2" max="2" width="9.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.140625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="25.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -2547,7 +2568,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="57.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>177</v>
       </c>
@@ -2570,7 +2591,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>180</v>
       </c>
@@ -2593,7 +2614,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>182</v>
       </c>
@@ -2616,7 +2637,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>187</v>
       </c>
@@ -2641,10 +2662,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G5" r:id="rId1" xr:uid="{74819888-E466-4EC4-818C-CA3F83986E80}"/>
-    <hyperlink ref="G2" r:id="rId2" xr:uid="{22AE01F7-B123-42E5-BB6A-E4031AB26CA4}"/>
-    <hyperlink ref="G3" r:id="rId3" xr:uid="{3C14897F-D346-42A1-BD93-62FA590511E2}"/>
-    <hyperlink ref="G4" r:id="rId4" xr:uid="{43802558-9D3D-4C16-9FE1-F5142EE0E7EB}"/>
+    <hyperlink ref="G5" r:id="rId1"/>
+    <hyperlink ref="G2" r:id="rId2"/>
+    <hyperlink ref="G3" r:id="rId3"/>
+    <hyperlink ref="G4" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
@@ -2652,20 +2673,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D36B371-A59C-4586-82F5-887FE2F8DFBE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.1796875" customWidth="1"/>
-    <col min="2" max="2" width="15.7265625" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -2682,7 +2703,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="79" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="78.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>204</v>
       </c>
@@ -2699,7 +2720,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>206</v>
       </c>
@@ -2716,7 +2737,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>208</v>
       </c>

--- a/Bibliometria1.xlsx
+++ b/Bibliometria1.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\sbsb2\Dpti\Usuarios\Ludmilla_Mattos\qLearningFinance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ludmi\Google Drive\Mestrado\Artigo Q-learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7585D828-A1D3-4C7A-8934-B50730A829E4}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6945"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6940" activeTab="1" xr2:uid="{892CE944-84D9-4BC9-ABF2-F6D8514C3EE3}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumos" sheetId="2" r:id="rId1"/>
-    <sheet name="Lista" sheetId="1" r:id="rId2"/>
-    <sheet name="MP" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="Referências" sheetId="5" r:id="rId2"/>
+    <sheet name="Lista" sheetId="1" r:id="rId3"/>
+    <sheet name="MP" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="229">
   <si>
     <t>Autores</t>
   </si>
@@ -716,40 +717,90 @@
     <t xml:space="preserve">Adaptação para restrições realistas do mercado </t>
   </si>
   <si>
-    <t>The disenchantment of Bitcoin: unveiling the myth of a digital currency</t>
-  </si>
-  <si>
-    <t>International Review of Sociology</t>
-  </si>
-  <si>
-    <t>Smart controller for conical tank system using reinforcement learning algorithm</t>
-  </si>
-  <si>
-    <t>Measurement</t>
-  </si>
-  <si>
-    <t>Virtual relationships: Short- and long-run evidence from BitCoin and altcoin markets</t>
-  </si>
-  <si>
-    <t>Journal of International Financial Markets, Institutions and Money</t>
-  </si>
-  <si>
-    <t>Considera um portfólio de dois ativos  e aplica diversas técnicas de aprendizado pro reforço, entre elas Um Q-Learning com espaços de estatos e ações discretos maximizando retornos e sharpe ratio</t>
-  </si>
-  <si>
-    <t>O espaço de estados cosiste em um vetor com dois dindicadores binários indicando se os atrivos foram positivos ou negativos. Logo os estados possíveis são: (00, 01, 10, 11) O espaço de ações possiveis representam cinco possibilidades de distribuição do montante disponível em cada cativo:  (0/% 100/%, 25/% 75/%, 50/% 50/%, 75/% 25/%, 100/% 0/%). Dois critérios de reconpensa foram adotados: a maximização do lucro absoluto do portfólio representa um investidor neutro ao risco; já a maximização do Sharpe Ratio é uma medida do lucro ajustada ao risco.</t>
-  </si>
-  <si>
-    <t>Foram utilizados dados anuais de 1976 até 2016 do Índice S&amp;P500 e papéis do tesouro americano. Os dados foram divididos em período de treino (1976-2001) e teste (2002-2016).</t>
-  </si>
-  <si>
-    <t>Os resultados mostraram que o método de que learning teve desenpenho inferior aos métodos de referência</t>
+    <t>status</t>
+  </si>
+  <si>
+    <t>A portfolio is called efficient if its expected return cannot be increased without increasing its variability of return and if its variability cannot be reduced without also reducing its expected return.</t>
+  </si>
+  <si>
+    <t>Markovits (1959)</t>
+  </si>
+  <si>
+    <t>Portfolio management is the decision making process of allocating an amount of fund into different financial investment products, aiming to maximize the return while restraining the risk [1] [2]</t>
+  </si>
+  <si>
+    <t>article{tasca2015digital,
+  title={Digital currencies: Principles, trends, opportunities, and risks},
+  author={Tasca, Paolo},
+  year={2015}
+}</t>
+  </si>
+  <si>
+    <t>Citações</t>
+  </si>
+  <si>
+    <t>Advances in cryptography, global connectivity, and computing power have led to infrastructures that allow for the creation of such trust-less disintermediated and decentralised markets. These advances represent a significant forward leap for economics, as they have the potential to significantly reduce the architectures that traditionally oversee the correct and smooth operation of those markets.</t>
+  </si>
+  <si>
+    <t>Tasca2015</t>
+  </si>
+  <si>
+    <t>artigo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">citação </t>
+  </si>
+  <si>
+    <t>obs</t>
+  </si>
+  <si>
+    <t>ref</t>
+  </si>
+  <si>
+    <t>Referencial Teórico</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>Definição de portifólio eficiente proposta por Markowits</t>
+  </si>
+  <si>
+    <t>Definição de gerenciamento de portfólio</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>Parágrafo</t>
+  </si>
+  <si>
+    <t>Link entre desenvolvimento tecnológico e surgimento das criptomoédas</t>
+  </si>
+  <si>
+    <t>Seção</t>
+  </si>
+  <si>
+    <t>Digital currencies are money expressed as a string of bits sent as a message in a network
+that verifies the authenticity of the message via different mechanisms,</t>
+  </si>
+  <si>
+    <t>Tasca2016</t>
+  </si>
+  <si>
+    <t>Conceitoo de cripto</t>
+  </si>
+  <si>
+    <t>p4</t>
+  </si>
+  <si>
+    <t>Digital currency transfers can therefore be costless because transactions are not subject to middle-man activity, exchange rates, interest rates, and specific country-to-country transaction fees</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -819,7 +870,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -842,12 +893,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -864,36 +928,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -906,9 +952,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -933,9 +976,54 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1247,391 +1335,386 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2024F9E3-99B8-401A-992D-7848995BA865}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J16" sqref="J16"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="23" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" style="23" customWidth="1"/>
-    <col min="3" max="3" width="34.28515625" style="23" hidden="1" customWidth="1"/>
-    <col min="4" max="8" width="34.28515625" style="23" customWidth="1"/>
-    <col min="9" max="16384" width="8.7109375" style="23"/>
+    <col min="1" max="1" width="11.08984375" style="16" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" style="16" customWidth="1"/>
+    <col min="3" max="3" width="34.26953125" style="16" hidden="1" customWidth="1"/>
+    <col min="4" max="8" width="34.26953125" style="16" customWidth="1"/>
+    <col min="9" max="16384" width="8.7265625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="28" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27"/>
+    <row r="1" spans="1:10" s="21" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="20"/>
       <c r="B1" t="s">
         <v>198</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="20" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" s="16" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="I1" s="21" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="10" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="E2" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="F2" s="24" t="s">
+      <c r="E2" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="F2" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="17" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="129.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="129.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="17" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="80.099999999999994" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="80" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-    </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="77.099999999999994" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+    </row>
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="77" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-    </row>
-    <row r="6" spans="1:10" s="18" customFormat="1" ht="89.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+    </row>
+    <row r="6" spans="1:10" s="12" customFormat="1" ht="89.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24" t="s">
+      <c r="C6" s="17"/>
+      <c r="D6" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="H6" s="17" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="17" customFormat="1" ht="116.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+    <row r="7" spans="1:10" s="11" customFormat="1" ht="116" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="H7" s="17" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="21" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+    <row r="8" spans="1:10" s="14" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="H8" s="24" t="s">
+      <c r="H8" s="17" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="17" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+    <row r="9" spans="1:10" s="11" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="G9" s="24" t="s">
+      <c r="G9" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="H9" s="24" t="s">
+      <c r="H9" s="17" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+    <row r="10" spans="1:10" s="1" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-    </row>
-    <row r="11" spans="1:10" s="17" customFormat="1" ht="90.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+    </row>
+    <row r="11" spans="1:10" s="11" customFormat="1" ht="90.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="G11" s="24" t="s">
+      <c r="G11" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="H11" s="24" t="s">
+      <c r="H11" s="17" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="17" customFormat="1" ht="92.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+    <row r="12" spans="1:10" s="11" customFormat="1" ht="92.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="F12" s="24" t="s">
+      <c r="F12" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="G12" s="24" t="s">
+      <c r="G12" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="H12" s="24" t="s">
+      <c r="H12" s="17" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="17" customFormat="1" ht="92.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
+    <row r="13" spans="1:10" s="11" customFormat="1" ht="92.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="E13" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="F13" s="24" t="s">
+      <c r="F13" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-    </row>
-    <row r="14" spans="1:10" s="1" customFormat="1" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+    </row>
+    <row r="14" spans="1:10" s="1" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="E14" s="24" t="s">
+      <c r="E14" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="F14" s="24" t="s">
+      <c r="F14" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="G14" s="24" t="s">
+      <c r="G14" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="H14" s="24" t="s">
+      <c r="H14" s="17" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="1" customFormat="1" ht="71.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
+    <row r="15" spans="1:10" s="1" customFormat="1" ht="71.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
+      <c r="D15" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
       <c r="J15" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="1" customFormat="1" ht="75.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
+    <row r="16" spans="1:10" s="1" customFormat="1" ht="76" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="B16" s="24" t="s">
-        <v>198</v>
-      </c>
-      <c r="C16" s="24" t="s">
+      <c r="B16" s="17"/>
+      <c r="C16" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="D16" s="24" t="s">
-        <v>210</v>
-      </c>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24" t="s">
-        <v>211</v>
-      </c>
-      <c r="G16" s="24" t="s">
-        <v>212</v>
-      </c>
-      <c r="H16" s="24" t="s">
-        <v>213</v>
-      </c>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1639,27 +1722,164 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8326A951-2055-4223-895C-9C355ED46BA1}">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.81640625" style="32" customWidth="1"/>
+    <col min="2" max="2" width="45.54296875" style="33" customWidth="1"/>
+    <col min="3" max="3" width="26.81640625" style="17" customWidth="1"/>
+    <col min="4" max="4" width="26.81640625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="27.6328125" style="31" customWidth="1"/>
+    <col min="6" max="6" width="25.08984375" style="33" customWidth="1"/>
+    <col min="7" max="16384" width="8.7265625" style="33"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="34" t="s">
+        <v>212</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>213</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>214</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>223</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="128" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="61" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="A5" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A6" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="B7" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D8" s="31" t="s">
+        <v>216</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DC7E835-4272-4313-8880-F23D3252DE14}">
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView showGridLines="0" topLeftCell="A15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="1"/>
-    <col min="2" max="2" width="13.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="44.7109375" style="1" customWidth="1"/>
-    <col min="6" max="9" width="44.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="62.140625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="13.36328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.81640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="44.7265625" style="1" customWidth="1"/>
+    <col min="6" max="9" width="44.7265625" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="62.1796875" style="5" customWidth="1"/>
+    <col min="11" max="11" width="9.54296875" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -1685,11 +1905,14 @@
       <c r="I1" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="22" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K1" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>1989</v>
       </c>
@@ -1709,14 +1932,14 @@
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>1992</v>
       </c>
@@ -1736,82 +1959,82 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="17" customFormat="1" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+    <row r="4" spans="1:11" s="11" customFormat="1" ht="75.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="6">
         <v>1996</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="29" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="16" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+    <row r="5" spans="1:11" s="10" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="6">
         <v>1998</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="16" t="s">
+      <c r="J5" s="24"/>
+      <c r="K5" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>2002</v>
       </c>
@@ -1831,11 +2054,11 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="23" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="49" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>1998</v>
       </c>
@@ -1855,91 +2078,91 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" s="4" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
+    <row r="8" spans="1:11" ht="41.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="8">
         <v>1998</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="1" t="s">
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="4" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+    <row r="9" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="7">
         <v>1998</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="11" t="s">
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="K9" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="18" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+    <row r="10" spans="1:11" s="12" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="6">
         <v>2000</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9" t="s">
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="K10" s="18" t="s">
+      <c r="K10" s="30" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="51.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="52" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>2001</v>
       </c>
@@ -1959,149 +2182,149 @@
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="7" t="s">
+      <c r="J11" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="K11" s="4" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
+    <row r="12" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="8">
         <v>2001</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="13" t="s">
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="K12" s="4" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="17" customFormat="1" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+    <row r="13" spans="1:11" s="11" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="6">
         <v>2002</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="9" t="s">
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="K13" s="17" t="s">
+      <c r="K13" s="29" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="21" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="19">
+    <row r="14" spans="1:11" s="14" customFormat="1" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="13">
         <v>2004</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="20" t="s">
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="K14" s="21" t="s">
+      <c r="K14" s="13" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
+    <row r="15" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="8">
         <v>2007</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="13" t="s">
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="K15" s="4" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="17" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
+    <row r="16" spans="1:11" s="11" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="6">
         <v>2007</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="9" t="s">
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="K16" s="17" t="s">
+      <c r="K16" s="29" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
         <v>2007</v>
       </c>
@@ -2121,202 +2344,202 @@
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
-      <c r="J17" s="7" t="s">
+      <c r="J17" s="23" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
+    <row r="18" spans="1:11" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18" s="6">
         <v>2012</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="9" t="s">
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="K18" s="17" t="s">
+      <c r="K18" s="29" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="12">
+    <row r="19" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="8">
         <v>2015</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12" t="s">
+      <c r="B19" s="8"/>
+      <c r="C19" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="1" t="s">
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="4" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12">
+    <row r="20" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="8">
         <v>2016</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="13" t="s">
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="K20" s="4" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
+    <row r="21" spans="1:11" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="6">
         <v>2016</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="9" t="s">
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="K21" s="17" t="s">
+      <c r="K21" s="29" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14">
+    <row r="22" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="9">
         <v>2017</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
-      <c r="J22" s="15"/>
-    </row>
-    <row r="23" spans="1:11" ht="71.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14">
+      <c r="J22" s="28"/>
+    </row>
+    <row r="23" spans="1:11" ht="71.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="9">
         <v>2017</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
-      <c r="J23" s="15" t="s">
+      <c r="J23" s="28" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12" t="s">
+    <row r="24" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="1" t="s">
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="4" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="75.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14">
+    <row r="25" spans="1:11" ht="76" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="9">
         <v>2016</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="15" t="s">
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="28" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -2326,9 +2549,9 @@
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
-      <c r="J26" s="7"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J26" s="23"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -2338,9 +2561,9 @@
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
-      <c r="J27" s="7"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J27" s="23"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -2350,9 +2573,9 @@
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
-      <c r="J28" s="7"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J28" s="23"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -2362,9 +2585,9 @@
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
-      <c r="J29" s="7"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J29" s="23"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -2374,9 +2597,9 @@
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
-      <c r="J30" s="7"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J30" s="23"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -2386,9 +2609,9 @@
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
-      <c r="J31" s="7"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J31" s="23"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -2398,9 +2621,9 @@
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
-      <c r="J32" s="7"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J32" s="23"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -2410,9 +2633,9 @@
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
-      <c r="J33" s="7"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J33" s="23"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -2422,9 +2645,9 @@
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
-      <c r="J34" s="7"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J34" s="23"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -2434,9 +2657,9 @@
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
-      <c r="J35" s="7"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J35" s="23"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -2446,9 +2669,9 @@
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
-      <c r="J36" s="7"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J36" s="23"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -2458,9 +2681,9 @@
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
-      <c r="J37" s="7"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J37" s="23"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -2470,9 +2693,9 @@
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
-      <c r="J38" s="7"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J38" s="23"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -2482,9 +2705,9 @@
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
-      <c r="J39" s="7"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J39" s="23"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -2494,9 +2717,9 @@
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
-      <c r="J40" s="7"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J40" s="23"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -2506,9 +2729,9 @@
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
-      <c r="J41" s="7"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J41" s="23"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -2518,7 +2741,7 @@
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
-      <c r="J42" s="7"/>
+      <c r="J42" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2526,26 +2749,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAC67E70-271F-494E-A83F-7EA33BA7CACB}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection sqref="A1:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="25.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" style="1"/>
-    <col min="2" max="2" width="9.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.140625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="25.85546875" style="5"/>
+    <col min="1" max="1" width="25.81640625" style="1"/>
+    <col min="2" max="2" width="9.26953125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.1796875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.1796875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="25.81640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -2568,7 +2791,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="57.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>177</v>
       </c>
@@ -2587,11 +2810,11 @@
       <c r="F2" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="18" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>180</v>
       </c>
@@ -2601,7 +2824,7 @@
       <c r="C3" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D3" s="26">
+      <c r="D3" s="19">
         <v>4832</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -2610,11 +2833,11 @@
       <c r="F3" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="18" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>182</v>
       </c>
@@ -2633,11 +2856,11 @@
       <c r="F4" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="18" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>187</v>
       </c>
@@ -2656,106 +2879,18 @@
       <c r="F5" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="18" t="s">
         <v>189</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G5" r:id="rId1"/>
-    <hyperlink ref="G2" r:id="rId2"/>
-    <hyperlink ref="G3" r:id="rId3"/>
-    <hyperlink ref="G4" r:id="rId4"/>
+    <hyperlink ref="G5" r:id="rId1" xr:uid="{74819888-E466-4EC4-818C-CA3F83986E80}"/>
+    <hyperlink ref="G2" r:id="rId2" xr:uid="{22AE01F7-B123-42E5-BB6A-E4031AB26CA4}"/>
+    <hyperlink ref="G3" r:id="rId3" xr:uid="{3C14897F-D346-42A1-BD93-62FA590511E2}"/>
+    <hyperlink ref="G4" r:id="rId4" xr:uid="{43802558-9D3D-4C16-9FE1-F5142EE0E7EB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="78.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B2" s="1">
-        <v>2017</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2018</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D3" s="26">
-        <v>4832</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B4" s="1">
-        <v>2017</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>